--- a/SuppInfo/TableS1.xlsx
+++ b/SuppInfo/TableS1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <r>
       <t>~</t>
@@ -40,6 +40,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>(528, 1584)</t>
@@ -68,6 +69,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>, where L is the length of the simulated chromosome</t>
@@ -78,6 +80,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -103,6 +106,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -110,6 +114,38 @@
   </si>
   <si>
     <r>
+      <t>Selection coefficient for sweeps (2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Equilibrium (moderate selection)</t>
+  </si>
+  <si>
+    <t>Equilibrium (strong selection)</t>
+  </si>
+  <si>
+    <r>
       <t>~</t>
     </r>
     <r>
@@ -128,49 +164,55 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0.05, 0.2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Fixation time of sweepw</t>
-  </si>
-  <si>
-    <t>Initial selected frequency of soft sweepw</t>
-  </si>
-  <si>
-    <r>
-      <t>Selection coefficient for sweeps (2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2.5×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2.5×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Equilibrium (moderate selection)</t>
-  </si>
-  <si>
-    <t>Equilibrium (strong selection)</t>
-  </si>
-  <si>
     <r>
       <t>~</t>
     </r>
@@ -190,6 +232,650 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(25, 2.5×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>discoal_multipop 100 1000 110000 -Pt 528 1584 -r 880</t>
+  </si>
+  <si>
+    <t>Example discoal_multipop command line for neutral simulation</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(10560, 31680)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tenneseen African Demography (moderate selection)</t>
+  </si>
+  <si>
+    <t>Tenneseen African Demography (strong selection)</t>
+  </si>
+  <si>
+    <t>-en 1.17924528301887E-05 0 0.849244785303966 -en 2.35849056603774E-05 0 0.721216705365979 -en 0.000035377358490566 0 0.612489526106165 -en 4.71698113207547E-05 0 0.520153536098958 -en 5.89622641509434E-05 0 0.441737678089458 -en 7.07547169811321E-05 0 0.375143419589754 -en 8.25471698113208E-05 0 0.318588592827697 -en 9.43396226415094E-05 0 0.27055970111625 -en 0.000106132075471698 0 0.229771415286375 -en 0.000117924528301887 0 0.195132176243866 -en 0.000129716981132075 0 0.165714983120117 -en 0.000141509433962264 0 0.140732585261494 -en 0.000153301886792453 0 0.11951641415567 -en 0.000165094339622642 0 0.101498691479932 -en 0.00017688679245283 0 0.0861972344545082 -en 0.000188679245283019 0 0.0732025518681144 -en 0.000200471698113208 0 0.0621668854449393 -en 0.000212264150943396 0 0.0527949032827037 -en 0.000224056603773585 0 0.0448357963034634 -en 0.000235849056603774 0 0.0380765662056671 -en 0.000243731239656 0 0.0341367924528302</t>
+  </si>
+  <si>
+    <t>*TennessenAfrDemography:</t>
+  </si>
+  <si>
+    <t>Note: in addition to any population size contractions, the strings below use stepwise population size changes to approximate exponential population size growth, and can be pasted at the end of a discoal command to specify the demography history</t>
+  </si>
+  <si>
+    <t>**TennessenEuroDemography:</t>
+  </si>
+  <si>
+    <t>Tenneseen European Demography (strong selection)</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5406.72, 54067.2)</t>
+    </r>
+  </si>
+  <si>
+    <t>~exp(1/22528); maximum value truncated at 67584</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>discoal_multipop 100 1000 110000 -Pt 10560 31680 -r 17600 &lt;TennessenAfrDemography&gt;*</t>
+  </si>
+  <si>
+    <t>-en 0.000009765625 0 0.822002131587292 -en 0.00001953125 0 0.675687504334052 -en 0.000029296875 0 0.555416568849489 -en 0.0000390625 0 0.45655360351318 -en 0.000048828125 0 0.375288035271693 -en 0.00005859375 0 0.308487564952539 -en 0.000068359375 0 0.25357743595916 -en 0.000078125 0 0.20844119288087 -en 0.000087890625 0 0.171339104858673 -en 0.00009765625 0 0.140841109418088 -en 0.000107421875 0 0.115771692156787 -en 0.0001171875 0 0.0951645777303469 -en 0.000126953125 0 0.0782254857459497 -en 0.00013671875 0 0.064301516027622 -en 0.000146484375 0 0.0528559832389997 -en 0.00015625 0 0.0434477308896 -en 0.000166015625 0 0.0357141274038822 -en 0.00017578125 0 0.0293570888537713 -en 0.000185546875 0 0.0241315896149976 -en 0.0001953125 0 0.0198362181021178 -en 0.000200195312155863 0 0.017984375  -en 0.000234374999655863 0 0.0161572736993971 -en 0.000268554687155863 0 0.0145157945937643 -en 0.000302734374655863 0 0.0130410796158154 -en 0.000336914062155863 0 0.0117161865612988 -en 0.000371093749655863 0 0.0105258944491595 -en 0.000405273437155863 0 0.00945652865590467 -en 0.000439453124655863 0 0.0084958038152365 -en 0.000473632812155863 0 0.00763268267811134 -en 0.000507812499655863 0 0.0068572493117438 -en 0.000541992187155863 0 0.00616059518080819 -en 0.000576171874655863 0 0.00553471680208542 -en 0.000610351562155863 0 0.00497242379676503 -en 0.000644531249655863 0 0.00446725628406482 -en 0.000678710937155863 0 0.00401341066714785 -en 0.000712890624655863 0 0.00360567295873156 -en 0.000747070312155863 0 0.00323935888040262 -en 0.000781249999655863 0 0.00291026004747109 -en 0.000815429687155863 0 0.00261459562111059 -en 0.000849609374655863 0 0.00234896887234219 -en 0.000883789062155863 0 0.00211032815884884 -en 0.000898437499655863 0 0.00201562499992238 -en 0.0008984375 0 0.003634765625 -en 0.0019921875 0 0.02826171875</t>
+  </si>
+  <si>
+    <t>discoal_multipop 170 1000 110000 -Pt 10560 31680 -r 17600 &lt;TennessenEuroDemography&gt;**</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0, 0.1)×2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generations ago</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0, 2.44×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)×2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generations ago</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0, 2.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)×2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generations ago</t>
+    </r>
+  </si>
+  <si>
+    <t>Table S1: Parameters used for simulating training and test datasets of large chromosomal regions.</t>
+  </si>
+  <si>
+    <t>Training data for SFselect+ and H12 methods were generated using these same parameters, but dividing the mutation rate, recombination rate, and number of sites (the third parameter in the discoal_multipop command line) by 11.</t>
+  </si>
+  <si>
+    <t>Thornton and Andolfatto Bottleneck</t>
+  </si>
+  <si>
+    <t>Less severe bottleneck</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 1.0×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0, 0.022, or 0.044×2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generations ago; see text</t>
+    </r>
+  </si>
+  <si>
+    <t>discoal_multipop 100 1000 110000 -t 1100 -r 1100 -en 0.0084 0 0.029 -en 0.044 0 1 -ws &lt;tau&gt;</t>
+  </si>
+  <si>
+    <t>discoal_multipop 100 1000 110000 -t 1100 -r 1100 -en 0.0084 0 0.29 -en 0.044 0 1 -ws &lt;tau&gt;</t>
+  </si>
+  <si>
+    <t>Initial selected frequency of soft sweep</t>
+  </si>
+  <si>
+    <t>Fixation time of sweep (or "tau")</t>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>(2.5×10</t>
@@ -202,14 +888,15 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>, 2.5×10</t>
@@ -222,14 +909,15 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -255,36 +943,53 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(25, 2.5×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>discoal_multipop 100 1000 110000 -Pt 528 1584 -r 880</t>
-  </si>
-  <si>
-    <t>Example discoal_multipop command line for neutral simulation</t>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0.05, 0.2), ~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2/2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.05), or ~U(2/2N, 0.05); see text</t>
+    </r>
   </si>
   <si>
     <r>
@@ -306,9 +1011,31 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(10560, 31680)</t>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0.05, 0.2), ~</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2/2N, 0.05), or ~U(2/2N, 0.05); see text</t>
     </r>
   </si>
   <si>
@@ -331,262 +1058,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tenneseen African Demography (moderate selection)</t>
-  </si>
-  <si>
-    <t>Tenneseen African Demography (strong selection)</t>
-  </si>
-  <si>
-    <t>-en 1.17924528301887E-05 0 0.849244785303966 -en 2.35849056603774E-05 0 0.721216705365979 -en 0.000035377358490566 0 0.612489526106165 -en 4.71698113207547E-05 0 0.520153536098958 -en 5.89622641509434E-05 0 0.441737678089458 -en 7.07547169811321E-05 0 0.375143419589754 -en 8.25471698113208E-05 0 0.318588592827697 -en 9.43396226415094E-05 0 0.27055970111625 -en 0.000106132075471698 0 0.229771415286375 -en 0.000117924528301887 0 0.195132176243866 -en 0.000129716981132075 0 0.165714983120117 -en 0.000141509433962264 0 0.140732585261494 -en 0.000153301886792453 0 0.11951641415567 -en 0.000165094339622642 0 0.101498691479932 -en 0.00017688679245283 0 0.0861972344545082 -en 0.000188679245283019 0 0.0732025518681144 -en 0.000200471698113208 0 0.0621668854449393 -en 0.000212264150943396 0 0.0527949032827037 -en 0.000224056603773585 0 0.0448357963034634 -en 0.000235849056603774 0 0.0380765662056671 -en 0.000243731239656 0 0.0341367924528302</t>
-  </si>
-  <si>
-    <t>*TennessenAfrDemography:</t>
-  </si>
-  <si>
-    <t>Note: in addition to any population size contractions, the strings below use stepwise population size changes to approximate exponential population size growth, and can be pasted at the end of a discoal command to specify the demography history</t>
-  </si>
-  <si>
-    <t>**TennessenEuroDemography:</t>
-  </si>
-  <si>
-    <t>Tenneseen European Demography (strong selection)</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5406.72, 54067.2)</t>
-    </r>
-  </si>
-  <si>
-    <t>~exp(1/22528); maximum value truncated at 67584</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 5.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>discoal_multipop 100 1000 110000 -Pt 10560 31680 -r 17600 &lt;TennessenAfrDemography&gt;*</t>
-  </si>
-  <si>
-    <t>-en 0.000009765625 0 0.822002131587292 -en 0.00001953125 0 0.675687504334052 -en 0.000029296875 0 0.555416568849489 -en 0.0000390625 0 0.45655360351318 -en 0.000048828125 0 0.375288035271693 -en 0.00005859375 0 0.308487564952539 -en 0.000068359375 0 0.25357743595916 -en 0.000078125 0 0.20844119288087 -en 0.000087890625 0 0.171339104858673 -en 0.00009765625 0 0.140841109418088 -en 0.000107421875 0 0.115771692156787 -en 0.0001171875 0 0.0951645777303469 -en 0.000126953125 0 0.0782254857459497 -en 0.00013671875 0 0.064301516027622 -en 0.000146484375 0 0.0528559832389997 -en 0.00015625 0 0.0434477308896 -en 0.000166015625 0 0.0357141274038822 -en 0.00017578125 0 0.0293570888537713 -en 0.000185546875 0 0.0241315896149976 -en 0.0001953125 0 0.0198362181021178 -en 0.000200195312155863 0 0.017984375  -en 0.000234374999655863 0 0.0161572736993971 -en 0.000268554687155863 0 0.0145157945937643 -en 0.000302734374655863 0 0.0130410796158154 -en 0.000336914062155863 0 0.0117161865612988 -en 0.000371093749655863 0 0.0105258944491595 -en 0.000405273437155863 0 0.00945652865590467 -en 0.000439453124655863 0 0.0084958038152365 -en 0.000473632812155863 0 0.00763268267811134 -en 0.000507812499655863 0 0.0068572493117438 -en 0.000541992187155863 0 0.00616059518080819 -en 0.000576171874655863 0 0.00553471680208542 -en 0.000610351562155863 0 0.00497242379676503 -en 0.000644531249655863 0 0.00446725628406482 -en 0.000678710937155863 0 0.00401341066714785 -en 0.000712890624655863 0 0.00360567295873156 -en 0.000747070312155863 0 0.00323935888040262 -en 0.000781249999655863 0 0.00291026004747109 -en 0.000815429687155863 0 0.00261459562111059 -en 0.000849609374655863 0 0.00234896887234219 -en 0.000883789062155863 0 0.00211032815884884 -en 0.000898437499655863 0 0.00201562499992238 -en 0.0008984375 0 0.003634765625 -en 0.0019921875 0 0.02826171875</t>
-  </si>
-  <si>
-    <t>discoal_multipop 170 1000 110000 -Pt 10560 31680 -r 17600 &lt;TennessenEuroDemography&gt;**</t>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0, 0.1)×2</t>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2/2</t>
     </r>
     <r>
       <rPr>
@@ -604,146 +1079,11 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> generations ago</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0, 2.44×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)×2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> generations ago</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0, 2.0×10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)×2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> generations ago</t>
-    </r>
-  </si>
-  <si>
-    <t>Table S1: Parameters used for simulating training and test datasets of large chromosomal regions.</t>
-  </si>
-  <si>
-    <t>Training data for SFselect+ and H12 methods were generated using these same parameters, but dividing the mutation rate, recombination rate, and number of sites (the third parameter in the discoal_multipop command line) by 11.</t>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.2)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -756,6 +1096,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,8 +1155,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -864,7 +1235,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -879,6 +1250,21 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -893,6 +1279,21 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1222,53 +1623,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="4" width="47.33203125" customWidth="1"/>
     <col min="5" max="5" width="73.1640625" customWidth="1"/>
     <col min="6" max="6" width="76.1640625" customWidth="1"/>
     <col min="7" max="7" width="79.5" customWidth="1"/>
+    <col min="8" max="8" width="77.5" customWidth="1"/>
+    <col min="9" max="9" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1282,16 +1691,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1311,121 +1726,154 @@
         <v>17600</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
